--- a/fuentes/contenidos/grado09/guion12/ESCALETA_ MA_09_12_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion12/ESCALETA_ MA_09_12_CO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\ejemplos escalestas y cronogramas\ESCALETAS 7-8-9\ESCALETAS MAT 9\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16875" windowHeight="7215"/>
   </bookViews>
@@ -16,12 +11,15 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$P$1:$P$161</definedName>
+  </definedNames>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="161">
   <si>
     <t>Asignatura</t>
   </si>
@@ -81,390 +79,48 @@
     <t>SI</t>
   </si>
   <si>
-    <t>COMUNICACIÓN</t>
-  </si>
-  <si>
     <t xml:space="preserve">INTERACTIVO </t>
   </si>
   <si>
-    <t>F4</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
-    <t xml:space="preserve">PODEMOS USAR COLORES PARA SEÑALAR LAS QUE VAN EN </t>
-  </si>
-  <si>
-    <t>EJERCITACIÓN</t>
-  </si>
-  <si>
     <t xml:space="preserve">ACTIVIDAD </t>
   </si>
   <si>
     <t>M5A</t>
   </si>
   <si>
-    <t>CONSOLIDACIÓN Y COMPETENCIAS</t>
-  </si>
-  <si>
-    <t>MT_10_06_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAS ACTIVIDADES SE PONENE EN </t>
-  </si>
-  <si>
     <t>M8A</t>
   </si>
   <si>
-    <t>F7B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POR ESO TENER EN CUENTA </t>
-  </si>
-  <si>
-    <t>M7A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fuente es la ruta de cuando es aprovechada </t>
-  </si>
-  <si>
-    <t>RESOLUCIÓN DE PROBLEMAS</t>
-  </si>
-  <si>
     <t>M102AB</t>
   </si>
   <si>
-    <t>MT_10_06_07</t>
-  </si>
-  <si>
     <t>F6</t>
   </si>
   <si>
-    <t>M10B</t>
-  </si>
-  <si>
-    <t>M3A</t>
-  </si>
-  <si>
     <t>M4A</t>
   </si>
   <si>
-    <t>MT_19_1</t>
-  </si>
-  <si>
-    <t>RAZONAMIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIDEO </t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>MODELACIÓN</t>
-  </si>
-  <si>
-    <t>MT_10_06_09</t>
-  </si>
-  <si>
     <t>M101A</t>
   </si>
   <si>
-    <t>F13</t>
-  </si>
-  <si>
     <t xml:space="preserve">MAPA CONCEPTUAL </t>
   </si>
   <si>
-    <t>ASIGNATURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOCIALES </t>
-  </si>
-  <si>
-    <t>CIENCIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENGUAJE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIPOLOGÍA: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIPO MEDIA </t>
-  </si>
-  <si>
-    <t>SECUENCIA DE IMÁGENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANIMACIÓN </t>
-  </si>
-  <si>
-    <t>TIPO DE MOTOR F</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
     <t>F6B</t>
   </si>
   <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F10B</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F13B</t>
-  </si>
-  <si>
-    <t>TIPO DE MOTOR M</t>
-  </si>
-  <si>
-    <t>M1A</t>
-  </si>
-  <si>
-    <t>M1B</t>
-  </si>
-  <si>
-    <t>M1C</t>
-  </si>
-  <si>
-    <t>M1D</t>
-  </si>
-  <si>
-    <t>M2A</t>
-  </si>
-  <si>
-    <t>M2B</t>
-  </si>
-  <si>
-    <t>M2C</t>
-  </si>
-  <si>
-    <t>M3B</t>
-  </si>
-  <si>
-    <t>M3B1</t>
-  </si>
-  <si>
-    <t>M5B</t>
-  </si>
-  <si>
-    <t>M5C</t>
-  </si>
-  <si>
-    <t>M5D</t>
-  </si>
-  <si>
     <t>M6A</t>
   </si>
   <si>
-    <t>M6B</t>
-  </si>
-  <si>
-    <t>M9B</t>
-  </si>
-  <si>
-    <t>M9C</t>
-  </si>
-  <si>
-    <t>M10A</t>
-  </si>
-  <si>
-    <t>M11A</t>
-  </si>
-  <si>
-    <t>M12A</t>
-  </si>
-  <si>
-    <t>M12B</t>
-  </si>
-  <si>
-    <t>M12C</t>
-  </si>
-  <si>
-    <t>M12D</t>
-  </si>
-  <si>
-    <t>M13A</t>
-  </si>
-  <si>
-    <t>M13B</t>
-  </si>
-  <si>
-    <t>M14A</t>
-  </si>
-  <si>
-    <t>M15A</t>
-  </si>
-  <si>
     <t>M101AP</t>
   </si>
   <si>
-    <t>MT_1_1</t>
-  </si>
-  <si>
-    <t>MT_2_1</t>
-  </si>
-  <si>
-    <t>MT_3_1</t>
-  </si>
-  <si>
-    <t>MT_3_2</t>
-  </si>
-  <si>
-    <t>MT_3_3</t>
-  </si>
-  <si>
-    <t>MT_4_1</t>
-  </si>
-  <si>
-    <t>MT_4_2</t>
-  </si>
-  <si>
-    <t>MT_5_1</t>
-  </si>
-  <si>
-    <t>MT_6_1</t>
-  </si>
-  <si>
-    <t>MT_6_2</t>
-  </si>
-  <si>
-    <t>MT_6_3</t>
-  </si>
-  <si>
-    <t>MT_9_1</t>
-  </si>
-  <si>
-    <t>MT_11_1</t>
-  </si>
-  <si>
     <t>MT_12_1</t>
   </si>
   <si>
-    <t>MT_13_1</t>
-  </si>
-  <si>
-    <t>MT_14_1</t>
-  </si>
-  <si>
-    <t>MT_14_2</t>
-  </si>
-  <si>
-    <t>MT_16_1</t>
-  </si>
-  <si>
-    <t>MT_17_1</t>
-  </si>
-  <si>
-    <t>MT_09_08_06</t>
-  </si>
-  <si>
-    <t>MT_09_08_08</t>
-  </si>
-  <si>
-    <t>MT_09_08_10</t>
-  </si>
-  <si>
-    <t>MT_09_12_03</t>
-  </si>
-  <si>
-    <t>MT_09_12_04</t>
-  </si>
-  <si>
-    <t>MT_10_09_04</t>
-  </si>
-  <si>
-    <t>MT_09_10_05a</t>
-  </si>
-  <si>
-    <t>MT_09_10_05b</t>
-  </si>
-  <si>
-    <t>MT_09_10_05d</t>
-  </si>
-  <si>
-    <t>MT_10_12_09</t>
-  </si>
-  <si>
-    <t>MT_09_01_03a</t>
-  </si>
-  <si>
-    <t>MT_10_01_03</t>
-  </si>
-  <si>
-    <t>MT_10_01_04</t>
-  </si>
-  <si>
-    <t>MT_10_02_09</t>
-  </si>
-  <si>
-    <t>MT_10_03_07</t>
-  </si>
-  <si>
-    <t>MT_10_03_10</t>
-  </si>
-  <si>
-    <t>MT_10_04_09</t>
-  </si>
-  <si>
-    <t>MT_10_04_10</t>
-  </si>
-  <si>
-    <t>MT_10_05_07</t>
-  </si>
-  <si>
-    <t>MT_10_05_08</t>
-  </si>
-  <si>
-    <t>MT_09_05_03</t>
-  </si>
-  <si>
-    <t>MT_09_05_04</t>
-  </si>
-  <si>
-    <t>MT_09_05_07</t>
-  </si>
-  <si>
-    <t>MT_09_05_09</t>
-  </si>
-  <si>
-    <t>MT_09_06_05a</t>
-  </si>
-  <si>
-    <t>MT_09_06_05b</t>
-  </si>
-  <si>
-    <t>MT_09_06_05c</t>
-  </si>
-  <si>
-    <t>MT_09_09_03</t>
-  </si>
-  <si>
-    <t>MT_09_07_05</t>
-  </si>
-  <si>
-    <t>MT_10_06_04</t>
-  </si>
-  <si>
-    <t>MT_10_06_05</t>
-  </si>
-  <si>
-    <t>MT_10_06_08</t>
-  </si>
-  <si>
     <t>MA_09_12_CO</t>
   </si>
   <si>
@@ -510,9 +166,6 @@
     <t>las tablas de frecuencia para variables continuas y discretas.</t>
   </si>
   <si>
-    <t>3° ESO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ejercicios  que permiten identificar los elementos de una tabla de frecuencia </t>
   </si>
   <si>
@@ -822,12 +475,6 @@
     <t>Seleccionar el nivel 3</t>
   </si>
   <si>
-    <t>Matemáticas</t>
-  </si>
-  <si>
-    <t>Los cuartiles y el diagrama de caja de bigotes</t>
-  </si>
-  <si>
     <t>Recurso M101A-01</t>
   </si>
   <si>
@@ -847,13 +494,22 @@
   </si>
   <si>
     <t>Interactivo que permite a los estudiantes conocer e interpretar el concepto de cuartil, diagrama de caj y bigotes y conocer sus aplicaciones.</t>
+  </si>
+  <si>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>MTC</t>
+  </si>
+  <si>
+    <t>MTC_09_11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,6 +552,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1137,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1157,6 +820,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,22 +950,37 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,140 +995,20 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1391,7 +1070,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1426,7 +1105,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1637,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GE161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView tabSelected="1" topLeftCell="M7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1326,7 @@
     <col min="2" max="2" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="7" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="31.140625" style="6" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="6" customWidth="1"/>
@@ -1662,7 +1341,7 @@
     <col min="17" max="17" width="16.140625" style="6" customWidth="1"/>
     <col min="18" max="18" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="40" style="7" customWidth="1"/>
     <col min="21" max="21" width="15" style="6" customWidth="1"/>
     <col min="22" max="130" width="11.42578125" style="1"/>
     <col min="131" max="187" width="11.42578125" style="2"/>
@@ -1670,267 +1349,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="D1" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="J1" s="16" t="s">
+      <c r="H1" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="65"/>
+      <c r="O1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="28" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="22"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="63"/>
     </row>
     <row r="3" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="36">
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="16">
         <v>1</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="L3" s="40" t="s">
+      <c r="J3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>10</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="16">
+        <v>2</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>10</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="T4" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:187" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="16">
+        <v>3</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="O5" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="32">
+        <v>6</v>
+      </c>
+      <c r="R5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q3" s="44">
-        <v>10</v>
-      </c>
-      <c r="R3" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="S3" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="T3" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="U3" s="44" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="H4" s="36">
-        <v>2</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q4" s="44">
-        <v>10</v>
-      </c>
-      <c r="R4" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="S4" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="T4" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="U4" s="44" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:187" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="H5" s="36">
-        <v>3</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="P5" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="52">
-        <v>6</v>
-      </c>
-      <c r="R5" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="T5" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="U5" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>23</v>
+      <c r="S5" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="T5" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="U5" s="32" t="s">
+        <v>137</v>
       </c>
       <c r="EA5" s="4"/>
       <c r="EB5" s="4"/>
@@ -1991,489 +1667,477 @@
       <c r="GE5" s="4"/>
     </row>
     <row r="6" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="H6" s="57">
+      <c r="B6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="16">
         <v>4</v>
       </c>
-      <c r="I6" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J6" s="48" t="s">
+      <c r="I6" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>6</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="T6" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="U6" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="16">
+        <v>5</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>6</v>
+      </c>
+      <c r="R7" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="T7" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="U7" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="16">
+        <v>6</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>6</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="T8" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="U8" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="16">
+        <v>7</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>6</v>
+      </c>
+      <c r="R9" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="T9" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="P6" s="60" t="s">
+      <c r="U9" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:187" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="16">
+        <v>8</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="52">
+      <c r="Q10" s="32">
+        <v>10</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="U10" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="16">
+        <v>9</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="32">
         <v>6</v>
       </c>
-      <c r="R6" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="S6" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="T6" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="U6" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="R11" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="T11" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="U11" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:187" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="H7" s="36">
-        <v>5</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J7" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="P7" s="60" t="s">
+      <c r="B12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="16">
+        <v>10</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="52">
-        <v>6</v>
-      </c>
-      <c r="R7" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="S7" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="T7" s="53" t="s">
-        <v>258</v>
-      </c>
-      <c r="U7" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="Q12" s="32">
+        <v>10</v>
+      </c>
+      <c r="R12" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="T12" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="U12" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:187" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="H8" s="36">
-        <v>6</v>
-      </c>
-      <c r="I8" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J8" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="P8" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="52">
-        <v>6</v>
-      </c>
-      <c r="R8" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="S8" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="T8" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="U8" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="36">
-        <v>7</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J9" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="P9" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="52">
-        <v>6</v>
-      </c>
-      <c r="R9" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="S9" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="T9" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="U9" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:187" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56" t="s">
-        <v>229</v>
-      </c>
-      <c r="H10" s="36">
+      <c r="B13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="16">
+        <v>11</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q13" s="32">
         <v>8</v>
       </c>
-      <c r="I10" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="J10" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="52">
-        <v>10</v>
-      </c>
-      <c r="R10" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="S10" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="T10" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="U10" s="52" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="H11" s="36">
-        <v>9</v>
-      </c>
-      <c r="I11" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J11" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="K11" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="P11" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="52">
-        <v>6</v>
-      </c>
-      <c r="R11" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="S11" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="T11" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="U11" s="52" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:187" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="H12" s="57">
-        <v>10</v>
-      </c>
-      <c r="I12" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J12" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="P12" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="52">
-        <v>10</v>
-      </c>
-      <c r="R12" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="S12" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="T12" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="U12" s="52" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:187" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="H13" s="36">
-        <v>11</v>
-      </c>
-      <c r="I13" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J13" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="L13" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q13" s="52">
-        <v>8</v>
-      </c>
-      <c r="R13" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="S13" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="T13" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="U13" s="52" t="s">
-        <v>235</v>
+      <c r="R13" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="S13" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="T13" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="U13" s="32" t="s">
+        <v>120</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -2643,976 +2307,936 @@
       <c r="GE13" s="2"/>
     </row>
     <row r="14" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="16">
+        <v>12</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14" s="32">
+        <v>6</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="T14" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="U14" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="16">
+        <v>13</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15" s="32">
+        <v>10</v>
+      </c>
+      <c r="R15" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="S15" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="T15" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="U15" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="16">
+        <v>14</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q16">
+        <v>9</v>
+      </c>
+      <c r="R16" t="s">
+        <v>159</v>
+      </c>
+      <c r="S16" t="s">
+        <v>101</v>
+      </c>
+      <c r="T16" t="s">
+        <v>53</v>
+      </c>
+      <c r="U16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="16">
+        <v>15</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="32">
+        <v>10</v>
+      </c>
+      <c r="R17" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="S17" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="T17" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="U17" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="16">
+        <v>16</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>10</v>
+      </c>
+      <c r="R18" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="S18" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="T18" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="U18" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="16">
+        <v>17</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="29"/>
+      <c r="O19" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="32">
+        <v>6</v>
+      </c>
+      <c r="R19" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="T19" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="U19" s="32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="16">
+        <v>18</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="P20" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="32">
+        <v>6</v>
+      </c>
+      <c r="R20" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="S20" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="H14" s="36">
-        <v>12</v>
-      </c>
-      <c r="I14" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J14" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="L14" s="40" t="s">
+      <c r="T20" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="U20" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="16">
+        <v>19</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="32">
+        <v>9</v>
+      </c>
+      <c r="R21" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="S21" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="T21" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="U21" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="16">
+        <v>20</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q22" s="32">
+        <v>10</v>
+      </c>
+      <c r="R22" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="S22" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="T22" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="U22" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="16">
+        <v>21</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="32">
+        <v>10</v>
+      </c>
+      <c r="R23" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="S23" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="T23" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="U23" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="16">
+        <v>22</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q24" s="32">
+        <v>10</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="S24" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="T24" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="U24" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="16">
+        <v>23</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" s="32">
+        <v>10</v>
+      </c>
+      <c r="R25" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="S25" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="T25" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="U25" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="16">
+        <v>24</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="32">
+        <v>6</v>
+      </c>
+      <c r="R26" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="S26" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="T26" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="U26" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="16">
         <v>25</v>
       </c>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="P14" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q14" s="52">
+      <c r="I27" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="41"/>
+    </row>
+    <row r="28" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="16">
+        <v>26</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="P28" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" s="32">
         <v>6</v>
       </c>
-      <c r="R14" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="S14" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="T14" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="U14" s="52" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="R28" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="S28" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="T28" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="U28" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="H15" s="36">
-        <v>13</v>
-      </c>
-      <c r="I15" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="K15" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="L15" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q15" s="52">
-        <v>10</v>
-      </c>
-      <c r="R15" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="S15" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="T15" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="U15" s="52" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="H16" s="36">
-        <v>14</v>
-      </c>
-      <c r="I16" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="K16" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="L16" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="P16" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q16" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="R16" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="S16" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="T16" s="64" t="s">
-        <v>267</v>
-      </c>
-      <c r="U16" s="64" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="H17" s="36">
-        <v>15</v>
-      </c>
-      <c r="I17" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="J17" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="K17" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="L17" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q17" s="52">
-        <v>10</v>
-      </c>
-      <c r="R17" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="S17" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="T17" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="U17" s="52" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="H18" s="57">
-        <v>16</v>
-      </c>
-      <c r="I18" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J18" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="L18" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="P18" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="52">
-        <v>10</v>
-      </c>
-      <c r="R18" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="S18" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="T18" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="U18" s="52" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="36">
-        <v>17</v>
-      </c>
-      <c r="I19" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="K19" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="L19" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="N19" s="49"/>
-      <c r="O19" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="P19" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q19" s="52">
+      <c r="B29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="16">
+        <v>27</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="36"/>
+      <c r="P29" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q29">
         <v>6</v>
       </c>
-      <c r="R19" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="S19" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="T19" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="U19" s="52" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="H20" s="36">
-        <v>18</v>
-      </c>
-      <c r="I20" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J20" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="K20" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="L20" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="O20" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="P20" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="52">
-        <v>6</v>
-      </c>
-      <c r="R20" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="S20" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="T20" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="U20" s="52" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56" t="s">
-        <v>269</v>
-      </c>
-      <c r="H21" s="36">
-        <v>19</v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J21" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="K21" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="L21" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="52">
-        <v>9</v>
-      </c>
-      <c r="R21" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="S21" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="T21" s="52" t="s">
-        <v>270</v>
-      </c>
-      <c r="U21" s="52" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="H22" s="36">
-        <v>20</v>
-      </c>
-      <c r="I22" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J22" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="K22" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="L22" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q22" s="52">
-        <v>10</v>
-      </c>
-      <c r="R22" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="S22" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="T22" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="U22" s="52" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="H23" s="36">
-        <v>21</v>
-      </c>
-      <c r="I23" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J23" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="K23" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="L23" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="P23" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="52">
-        <v>10</v>
-      </c>
-      <c r="R23" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="S23" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="T23" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="U23" s="52" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="H24" s="57">
-        <v>22</v>
-      </c>
-      <c r="I24" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J24" s="61" t="s">
-        <v>248</v>
-      </c>
-      <c r="K24" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="L24" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q24" s="52">
-        <v>10</v>
-      </c>
-      <c r="R24" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="S24" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="T24" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="U24" s="52" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="H25" s="36">
-        <v>23</v>
-      </c>
-      <c r="I25" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J25" s="61" t="s">
-        <v>249</v>
-      </c>
-      <c r="K25" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="L25" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="52">
-        <v>10</v>
-      </c>
-      <c r="R25" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="S25" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="T25" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="U25" s="52" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D26" s="65" t="s">
-        <v>219</v>
-      </c>
-      <c r="E26" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" s="36">
-        <v>24</v>
-      </c>
-      <c r="I26" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J26" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="K26" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="L26" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="O26" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="P26" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="52">
-        <v>6</v>
-      </c>
-      <c r="R26" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="S26" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="T26" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="U26" s="52" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>220</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" s="36">
-        <v>25</v>
-      </c>
-      <c r="I27" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J27" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="K27" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="L27" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-    </row>
-    <row r="28" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D28" s="65" t="s">
-        <v>220</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="H28" s="36">
-        <v>26</v>
-      </c>
-      <c r="I28" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J28" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="K28" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="L28" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="O28" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="P28" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q28" s="52">
-        <v>6</v>
-      </c>
-      <c r="R28" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="S28" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="T28" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="U28" s="52" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="65" t="s">
-        <v>220</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="H29" s="36">
-        <v>27</v>
-      </c>
-      <c r="I29" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="J29" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="K29" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="L29" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q29" s="52">
-        <v>10</v>
-      </c>
-      <c r="R29" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="S29" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="T29" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="U29" s="52" t="s">
-        <v>226</v>
-      </c>
+      <c r="R29" t="s">
+        <v>38</v>
+      </c>
+      <c r="S29" t="s">
+        <v>139</v>
+      </c>
+      <c r="T29" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="U29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T30" s="6"/>
     </row>
     <row r="31" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="T31" s="6"/>
     </row>
     <row r="32" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="T32" s="6"/>
+    </row>
+    <row r="33" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -3629,10 +3253,7 @@
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
     </row>
-    <row r="35" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>60</v>
-      </c>
+    <row r="35" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -3649,10 +3270,7 @@
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
     </row>
-    <row r="36" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>21</v>
-      </c>
+    <row r="36" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -3669,13 +3287,7 @@
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
     </row>
-    <row r="37" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>19</v>
-      </c>
+    <row r="37" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -3692,13 +3304,7 @@
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
     </row>
-    <row r="38" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>46</v>
-      </c>
+    <row r="38" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -3715,13 +3321,7 @@
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
     </row>
-    <row r="39" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>35</v>
-      </c>
+    <row r="39" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -3738,13 +3338,7 @@
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
     </row>
-    <row r="40" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>24</v>
-      </c>
+    <row r="40" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -3761,13 +3355,7 @@
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
     </row>
-    <row r="41" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>43</v>
-      </c>
+    <row r="41" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -3784,10 +3372,7 @@
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
     </row>
-    <row r="42" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>64</v>
-      </c>
+    <row r="42" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -3804,10 +3389,7 @@
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
     </row>
-    <row r="43" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>65</v>
-      </c>
+    <row r="43" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -3824,10 +3406,7 @@
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
     </row>
-    <row r="44" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>66</v>
-      </c>
+    <row r="44" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -3844,10 +3423,7 @@
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
     </row>
-    <row r="45" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>45</v>
-      </c>
+    <row r="45" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -3864,10 +3440,7 @@
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
     </row>
-    <row r="46" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>49</v>
-      </c>
+    <row r="46" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -3884,10 +3457,7 @@
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
     </row>
-    <row r="47" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>67</v>
-      </c>
+    <row r="47" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3904,10 +3474,10 @@
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
     </row>
-    <row r="49" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>68</v>
-      </c>
+    <row r="48" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T48" s="6"/>
+    </row>
+    <row r="49" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3924,19 +3494,67 @@
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
     </row>
-    <row r="70" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>13</v>
-      </c>
+    <row r="50" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T50" s="6"/>
+    </row>
+    <row r="51" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T51" s="6"/>
+    </row>
+    <row r="52" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T52" s="6"/>
+    </row>
+    <row r="53" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T53" s="6"/>
+    </row>
+    <row r="54" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T54" s="6"/>
+    </row>
+    <row r="55" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T55" s="6"/>
+    </row>
+    <row r="56" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T56" s="6"/>
+    </row>
+    <row r="57" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T57" s="6"/>
+    </row>
+    <row r="58" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T58" s="6"/>
+    </row>
+    <row r="59" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T59" s="6"/>
+    </row>
+    <row r="60" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T60" s="6"/>
+    </row>
+    <row r="61" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T61" s="6"/>
+    </row>
+    <row r="62" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T62" s="6"/>
+    </row>
+    <row r="63" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T63" s="6"/>
+    </row>
+    <row r="64" spans="7:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T64" s="6"/>
+    </row>
+    <row r="65" spans="12:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T65" s="6"/>
+    </row>
+    <row r="66" spans="12:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T66" s="6"/>
+    </row>
+    <row r="67" spans="12:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T67" s="6"/>
+    </row>
+    <row r="68" spans="12:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T68" s="6"/>
+    </row>
+    <row r="69" spans="12:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T69" s="6"/>
+    </row>
+    <row r="70" spans="12:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L70" s="6" t="s">
         <v>14</v>
       </c>
@@ -3950,10 +3568,10 @@
       <c r="T70" s="8"/>
       <c r="U70" s="8"/>
     </row>
-    <row r="72" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>69</v>
-      </c>
+    <row r="71" spans="12:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T71" s="6"/>
+    </row>
+    <row r="72" spans="12:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -3964,10 +3582,7 @@
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
     </row>
-    <row r="73" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>70</v>
-      </c>
+    <row r="73" spans="12:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -3978,10 +3593,7 @@
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
     </row>
-    <row r="74" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>71</v>
-      </c>
+    <row r="74" spans="12:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
@@ -3992,10 +3604,7 @@
       <c r="T74" s="8"/>
       <c r="U74" s="8"/>
     </row>
-    <row r="75" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>72</v>
-      </c>
+    <row r="75" spans="12:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -4006,10 +3615,7 @@
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
     </row>
-    <row r="76" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>73</v>
-      </c>
+    <row r="76" spans="12:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
@@ -4020,10 +3626,7 @@
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
     </row>
-    <row r="77" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>74</v>
-      </c>
+    <row r="77" spans="12:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -4034,10 +3637,7 @@
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
     </row>
-    <row r="78" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>75</v>
-      </c>
+    <row r="78" spans="12:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -4048,10 +3648,7 @@
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
     </row>
-    <row r="79" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>40</v>
-      </c>
+    <row r="79" spans="12:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -4062,10 +3659,7 @@
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
     </row>
-    <row r="80" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>76</v>
-      </c>
+    <row r="80" spans="12:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -4076,10 +3670,7 @@
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
     </row>
-    <row r="81" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>77</v>
-      </c>
+    <row r="81" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
@@ -4090,14 +3681,11 @@
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
     </row>
-    <row r="82" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>41</v>
-      </c>
+    <row r="82" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="E82" s="47"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -4115,14 +3703,11 @@
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
     </row>
-    <row r="83" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>26</v>
-      </c>
+    <row r="83" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="E83" s="47"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -4140,14 +3725,11 @@
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
     </row>
-    <row r="84" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>78</v>
-      </c>
+    <row r="84" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="E84" s="47"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -4165,14 +3747,11 @@
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
     </row>
-    <row r="85" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>79</v>
-      </c>
+    <row r="85" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
+      <c r="E85" s="47"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -4190,14 +3769,11 @@
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
     </row>
-    <row r="86" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>80</v>
-      </c>
+    <row r="86" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="E86" s="47"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -4215,14 +3791,11 @@
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
     </row>
-    <row r="87" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>81</v>
-      </c>
+    <row r="87" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="E87" s="47"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -4240,14 +3813,11 @@
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
     </row>
-    <row r="88" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>82</v>
-      </c>
+    <row r="88" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="E88" s="47"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -4265,14 +3835,11 @@
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
     </row>
-    <row r="89" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>33</v>
-      </c>
+    <row r="89" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+      <c r="E89" s="47"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -4290,14 +3857,11 @@
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
     </row>
-    <row r="90" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>30</v>
-      </c>
+    <row r="90" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
+      <c r="E90" s="47"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -4315,14 +3879,11 @@
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
     </row>
-    <row r="91" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>83</v>
-      </c>
+    <row r="91" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="E91" s="47"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -4340,14 +3901,11 @@
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
     </row>
-    <row r="92" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>84</v>
-      </c>
+    <row r="92" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="E92" s="47"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -4365,14 +3923,11 @@
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
     </row>
-    <row r="93" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>85</v>
-      </c>
+    <row r="93" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="E93" s="47"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -4390,14 +3945,11 @@
       <c r="T93" s="8"/>
       <c r="U93" s="8"/>
     </row>
-    <row r="94" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>39</v>
-      </c>
+    <row r="94" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="E94" s="47"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -4415,14 +3967,11 @@
       <c r="T94" s="8"/>
       <c r="U94" s="8"/>
     </row>
-    <row r="95" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>86</v>
-      </c>
+    <row r="95" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="E95" s="47"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -4440,14 +3989,11 @@
       <c r="T95" s="8"/>
       <c r="U95" s="8"/>
     </row>
-    <row r="96" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>87</v>
-      </c>
+    <row r="96" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="E96" s="47"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -4465,14 +4011,11 @@
       <c r="T96" s="8"/>
       <c r="U96" s="8"/>
     </row>
-    <row r="97" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>88</v>
-      </c>
+    <row r="97" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="E97" s="47"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -4490,14 +4033,11 @@
       <c r="T97" s="8"/>
       <c r="U97" s="8"/>
     </row>
-    <row r="98" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>89</v>
-      </c>
+    <row r="98" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="E98" s="47"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -4515,14 +4055,11 @@
       <c r="T98" s="8"/>
       <c r="U98" s="8"/>
     </row>
-    <row r="99" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>90</v>
-      </c>
+    <row r="99" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="E99" s="47"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -4540,14 +4077,11 @@
       <c r="T99" s="8"/>
       <c r="U99" s="8"/>
     </row>
-    <row r="100" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>91</v>
-      </c>
+    <row r="100" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
+      <c r="E100" s="47"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -4565,14 +4099,11 @@
       <c r="T100" s="8"/>
       <c r="U100" s="8"/>
     </row>
-    <row r="101" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>92</v>
-      </c>
+    <row r="101" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
+      <c r="E101" s="47"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -4590,14 +4121,11 @@
       <c r="T101" s="8"/>
       <c r="U101" s="8"/>
     </row>
-    <row r="102" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>93</v>
-      </c>
+    <row r="102" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
+      <c r="E102" s="47"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -4615,14 +4143,11 @@
       <c r="T102" s="8"/>
       <c r="U102" s="8"/>
     </row>
-    <row r="103" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>94</v>
-      </c>
+    <row r="103" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
+      <c r="E103" s="47"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -4640,14 +4165,11 @@
       <c r="T103" s="8"/>
       <c r="U103" s="8"/>
     </row>
-    <row r="104" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>48</v>
-      </c>
+    <row r="104" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
+      <c r="E104" s="47"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -4665,14 +4187,11 @@
       <c r="T104" s="8"/>
       <c r="U104" s="8"/>
     </row>
-    <row r="105" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
-        <v>95</v>
-      </c>
+    <row r="105" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
+      <c r="E105" s="47"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -4690,14 +4209,11 @@
       <c r="T105" s="8"/>
       <c r="U105" s="8"/>
     </row>
-    <row r="106" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
-        <v>36</v>
-      </c>
+    <row r="106" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
+      <c r="E106" s="47"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -4715,14 +4231,11 @@
       <c r="T106" s="8"/>
       <c r="U106" s="8"/>
     </row>
-    <row r="107" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
-        <v>96</v>
-      </c>
+    <row r="107" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
+      <c r="E107" s="47"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -4740,14 +4253,11 @@
       <c r="T107" s="8"/>
       <c r="U107" s="8"/>
     </row>
-    <row r="108" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>97</v>
-      </c>
+    <row r="108" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
+      <c r="E108" s="47"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -4765,14 +4275,11 @@
       <c r="T108" s="8"/>
       <c r="U108" s="8"/>
     </row>
-    <row r="109" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
-        <v>98</v>
-      </c>
+    <row r="109" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
+      <c r="E109" s="47"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -4790,14 +4297,11 @@
       <c r="T109" s="8"/>
       <c r="U109" s="8"/>
     </row>
-    <row r="110" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
-        <v>99</v>
-      </c>
+    <row r="110" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
+      <c r="E110" s="47"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -4815,14 +4319,11 @@
       <c r="T110" s="8"/>
       <c r="U110" s="8"/>
     </row>
-    <row r="111" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>100</v>
-      </c>
+    <row r="111" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
+      <c r="E111" s="47"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -4840,14 +4341,11 @@
       <c r="T111" s="8"/>
       <c r="U111" s="8"/>
     </row>
-    <row r="112" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
-        <v>101</v>
-      </c>
+    <row r="112" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
+      <c r="E112" s="47"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -4865,14 +4363,11 @@
       <c r="T112" s="8"/>
       <c r="U112" s="8"/>
     </row>
-    <row r="113" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>102</v>
-      </c>
+    <row r="113" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
+      <c r="E113" s="47"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -4890,14 +4385,11 @@
       <c r="T113" s="8"/>
       <c r="U113" s="8"/>
     </row>
-    <row r="114" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
-        <v>103</v>
-      </c>
+    <row r="114" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
+      <c r="E114" s="47"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -4915,14 +4407,11 @@
       <c r="T114" s="8"/>
       <c r="U114" s="8"/>
     </row>
-    <row r="115" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
-        <v>104</v>
-      </c>
+    <row r="115" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
+      <c r="E115" s="47"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -4940,14 +4429,11 @@
       <c r="T115" s="8"/>
       <c r="U115" s="8"/>
     </row>
-    <row r="116" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
-        <v>105</v>
-      </c>
+    <row r="116" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
+      <c r="E116" s="47"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -4965,14 +4451,11 @@
       <c r="T116" s="8"/>
       <c r="U116" s="8"/>
     </row>
-    <row r="117" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
-        <v>106</v>
-      </c>
+    <row r="117" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
+      <c r="E117" s="47"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -4990,14 +4473,11 @@
       <c r="T117" s="8"/>
       <c r="U117" s="8"/>
     </row>
-    <row r="118" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
-        <v>107</v>
-      </c>
+    <row r="118" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
+      <c r="E118" s="47"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -5015,14 +4495,11 @@
       <c r="T118" s="8"/>
       <c r="U118" s="8"/>
     </row>
-    <row r="119" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
-        <v>108</v>
-      </c>
+    <row r="119" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
+      <c r="E119" s="47"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -5040,14 +4517,11 @@
       <c r="T119" s="8"/>
       <c r="U119" s="8"/>
     </row>
-    <row r="120" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
-        <v>109</v>
-      </c>
+    <row r="120" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
+      <c r="E120" s="47"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -5065,14 +4539,11 @@
       <c r="T120" s="8"/>
       <c r="U120" s="8"/>
     </row>
-    <row r="121" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
-        <v>110</v>
-      </c>
+    <row r="121" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
+      <c r="E121" s="47"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -5090,14 +4561,11 @@
       <c r="T121" s="8"/>
       <c r="U121" s="8"/>
     </row>
-    <row r="122" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
-        <v>111</v>
-      </c>
+    <row r="122" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
+      <c r="E122" s="47"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -5115,14 +4583,11 @@
       <c r="T122" s="8"/>
       <c r="U122" s="8"/>
     </row>
-    <row r="123" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
-        <v>112</v>
-      </c>
+    <row r="123" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
+      <c r="E123" s="47"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -5140,14 +4605,11 @@
       <c r="T123" s="8"/>
       <c r="U123" s="8"/>
     </row>
-    <row r="124" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
-        <v>113</v>
-      </c>
+    <row r="124" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
+      <c r="E124" s="47"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -5165,14 +4627,11 @@
       <c r="T124" s="8"/>
       <c r="U124" s="8"/>
     </row>
-    <row r="125" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
-        <v>114</v>
-      </c>
+    <row r="125" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
+      <c r="E125" s="47"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -5190,14 +4649,11 @@
       <c r="T125" s="8"/>
       <c r="U125" s="8"/>
     </row>
-    <row r="126" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
-        <v>42</v>
-      </c>
+    <row r="126" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
+      <c r="E126" s="47"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -5215,14 +4671,11 @@
       <c r="T126" s="8"/>
       <c r="U126" s="8"/>
     </row>
-    <row r="127" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
-        <v>115</v>
-      </c>
+    <row r="127" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
+      <c r="E127" s="47"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -5240,14 +4693,11 @@
       <c r="T127" s="8"/>
       <c r="U127" s="8"/>
     </row>
-    <row r="128" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
-        <v>116</v>
-      </c>
+    <row r="128" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
+      <c r="E128" s="47"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -5265,14 +4715,11 @@
       <c r="T128" s="8"/>
       <c r="U128" s="8"/>
     </row>
-    <row r="129" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
-        <v>117</v>
-      </c>
+    <row r="129" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
+      <c r="E129" s="47"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -5290,14 +4737,11 @@
       <c r="T129" s="8"/>
       <c r="U129" s="8"/>
     </row>
-    <row r="130" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="6" t="s">
-        <v>118</v>
-      </c>
+    <row r="130" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
+      <c r="E130" s="47"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -5315,14 +4759,11 @@
       <c r="T130" s="8"/>
       <c r="U130" s="8"/>
     </row>
-    <row r="131" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="s">
-        <v>119</v>
-      </c>
+    <row r="131" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
+      <c r="E131" s="47"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -5340,14 +4781,11 @@
       <c r="T131" s="8"/>
       <c r="U131" s="8"/>
     </row>
-    <row r="132" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
-        <v>120</v>
-      </c>
+    <row r="132" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
+      <c r="E132" s="47"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -5365,14 +4803,11 @@
       <c r="T132" s="8"/>
       <c r="U132" s="8"/>
     </row>
-    <row r="133" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
-        <v>121</v>
-      </c>
+    <row r="133" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
+      <c r="E133" s="47"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -5390,14 +4825,11 @@
       <c r="T133" s="8"/>
       <c r="U133" s="8"/>
     </row>
-    <row r="134" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
-        <v>122</v>
-      </c>
+    <row r="134" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
+      <c r="E134" s="47"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -5415,14 +4847,11 @@
       <c r="T134" s="8"/>
       <c r="U134" s="8"/>
     </row>
-    <row r="135" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
-        <v>123</v>
-      </c>
+    <row r="135" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
+      <c r="E135" s="47"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -5440,14 +4869,11 @@
       <c r="T135" s="8"/>
       <c r="U135" s="8"/>
     </row>
-    <row r="136" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
-        <v>124</v>
-      </c>
+    <row r="136" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
+      <c r="E136" s="47"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -5465,14 +4891,11 @@
       <c r="T136" s="8"/>
       <c r="U136" s="8"/>
     </row>
-    <row r="137" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="s">
-        <v>125</v>
-      </c>
+    <row r="137" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
+      <c r="E137" s="47"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -5490,14 +4913,11 @@
       <c r="T137" s="8"/>
       <c r="U137" s="8"/>
     </row>
-    <row r="138" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
-        <v>126</v>
-      </c>
+    <row r="138" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
+      <c r="E138" s="47"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -5515,14 +4935,11 @@
       <c r="T138" s="8"/>
       <c r="U138" s="8"/>
     </row>
-    <row r="139" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
-        <v>127</v>
-      </c>
+    <row r="139" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
+      <c r="E139" s="47"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -5540,14 +4957,11 @@
       <c r="T139" s="8"/>
       <c r="U139" s="8"/>
     </row>
-    <row r="140" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
-        <v>128</v>
-      </c>
+    <row r="140" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
+      <c r="E140" s="47"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -5565,14 +4979,11 @@
       <c r="T140" s="8"/>
       <c r="U140" s="8"/>
     </row>
-    <row r="141" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
-        <v>129</v>
-      </c>
+    <row r="141" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
+      <c r="E141" s="47"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -5590,14 +5001,11 @@
       <c r="T141" s="8"/>
       <c r="U141" s="8"/>
     </row>
-    <row r="142" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
-        <v>130</v>
-      </c>
+    <row r="142" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
+      <c r="E142" s="47"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -5615,14 +5023,11 @@
       <c r="T142" s="8"/>
       <c r="U142" s="8"/>
     </row>
-    <row r="143" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
-        <v>131</v>
-      </c>
+    <row r="143" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
+      <c r="E143" s="47"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -5640,14 +5045,11 @@
       <c r="T143" s="8"/>
       <c r="U143" s="8"/>
     </row>
-    <row r="144" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
-        <v>132</v>
-      </c>
+    <row r="144" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
+      <c r="E144" s="47"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -5665,14 +5067,11 @@
       <c r="T144" s="8"/>
       <c r="U144" s="8"/>
     </row>
-    <row r="145" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="s">
-        <v>133</v>
-      </c>
+    <row r="145" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
+      <c r="E145" s="47"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -5690,14 +5089,11 @@
       <c r="T145" s="8"/>
       <c r="U145" s="8"/>
     </row>
-    <row r="146" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="s">
-        <v>134</v>
-      </c>
+    <row r="146" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
+      <c r="E146" s="47"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -5715,14 +5111,11 @@
       <c r="T146" s="8"/>
       <c r="U146" s="8"/>
     </row>
-    <row r="147" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
-        <v>135</v>
-      </c>
+    <row r="147" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
+      <c r="E147" s="47"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -5740,14 +5133,11 @@
       <c r="T147" s="8"/>
       <c r="U147" s="8"/>
     </row>
-    <row r="148" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
-        <v>136</v>
-      </c>
+    <row r="148" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
+      <c r="E148" s="47"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -5765,14 +5155,11 @@
       <c r="T148" s="8"/>
       <c r="U148" s="8"/>
     </row>
-    <row r="149" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="s">
-        <v>137</v>
-      </c>
+    <row r="149" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
+      <c r="E149" s="47"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -5790,14 +5177,11 @@
       <c r="T149" s="8"/>
       <c r="U149" s="8"/>
     </row>
-    <row r="150" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="6" t="s">
-        <v>138</v>
-      </c>
+    <row r="150" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
+      <c r="E150" s="47"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -5815,14 +5199,11 @@
       <c r="T150" s="8"/>
       <c r="U150" s="8"/>
     </row>
-    <row r="151" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="s">
-        <v>139</v>
-      </c>
+    <row r="151" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
+      <c r="E151" s="47"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
@@ -5840,14 +5221,11 @@
       <c r="T151" s="8"/>
       <c r="U151" s="8"/>
     </row>
-    <row r="152" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="6" t="s">
-        <v>140</v>
-      </c>
+    <row r="152" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
+      <c r="E152" s="47"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -5865,14 +5243,11 @@
       <c r="T152" s="8"/>
       <c r="U152" s="8"/>
     </row>
-    <row r="153" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="s">
-        <v>141</v>
-      </c>
+    <row r="153" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
+      <c r="E153" s="47"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -5890,14 +5265,11 @@
       <c r="T153" s="8"/>
       <c r="U153" s="8"/>
     </row>
-    <row r="154" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="6" t="s">
-        <v>142</v>
-      </c>
+    <row r="154" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
+      <c r="E154" s="47"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -5915,14 +5287,11 @@
       <c r="T154" s="8"/>
       <c r="U154" s="8"/>
     </row>
-    <row r="155" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
-        <v>143</v>
-      </c>
+    <row r="155" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
+      <c r="E155" s="47"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -5940,14 +5309,11 @@
       <c r="T155" s="8"/>
       <c r="U155" s="8"/>
     </row>
-    <row r="156" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
-        <v>28</v>
-      </c>
+    <row r="156" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
+      <c r="E156" s="47"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -5965,14 +5331,11 @@
       <c r="T156" s="8"/>
       <c r="U156" s="8"/>
     </row>
-    <row r="157" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
-        <v>144</v>
-      </c>
+    <row r="157" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
+      <c r="E157" s="47"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -5990,14 +5353,11 @@
       <c r="T157" s="8"/>
       <c r="U157" s="8"/>
     </row>
-    <row r="158" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="6" t="s">
-        <v>145</v>
-      </c>
+    <row r="158" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
+      <c r="E158" s="47"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -6015,14 +5375,11 @@
       <c r="T158" s="8"/>
       <c r="U158" s="8"/>
     </row>
-    <row r="159" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
-        <v>37</v>
-      </c>
+    <row r="159" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
+      <c r="E159" s="47"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -6040,14 +5397,11 @@
       <c r="T159" s="8"/>
       <c r="U159" s="8"/>
     </row>
-    <row r="160" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="6" t="s">
-        <v>146</v>
-      </c>
+    <row r="160" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
+      <c r="E160" s="47"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -6065,14 +5419,11 @@
       <c r="T160" s="8"/>
       <c r="U160" s="8"/>
     </row>
-    <row r="161" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
-        <v>47</v>
-      </c>
+    <row r="161" spans="2:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
+      <c r="E161" s="47"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -6092,6 +5443,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -6104,14 +5463,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A29">

--- a/fuentes/contenidos/grado09/guion12/ESCALETA_ MA_09_12_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion12/ESCALETA_ MA_09_12_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CristhianAndres\Documents\GitHub\Matematicas\fuentes\contenidos\grado09\guion12\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16875" windowHeight="7215"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="160">
   <si>
     <t>Asignatura</t>
   </si>
@@ -211,9 +216,6 @@
     <t>Si</t>
   </si>
   <si>
-    <t>Mapa conceptual: Estadistica</t>
-  </si>
-  <si>
     <t>Mapa conceptual sobre la estadistica</t>
   </si>
   <si>
@@ -244,12 +246,6 @@
     <t>El estudio estadístico. Población y muestra</t>
   </si>
   <si>
-    <t>Repasa concpetos básicos de estadística</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Analisis de variables</t>
-  </si>
-  <si>
     <t xml:space="preserve">Presentar en las imágenes la organización de datos en tablas agrupadas. Se indaga por el número de intervalos; por el tamaño o rango, por cierta clase, por la frecuencia absoluta de la clase seleccionada, por la frecuencia acumuklada relativa, etc. </t>
   </si>
   <si>
@@ -503,6 +499,12 @@
   </si>
   <si>
     <t>MTC_09_11</t>
+  </si>
+  <si>
+    <t>Mapa conceptual: La estadistica</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El análisis de variables</t>
   </si>
 </sst>
 </file>
@@ -938,6 +940,39 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -976,39 +1011,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,7 +1072,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1105,7 +1107,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1316,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GE161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="H17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1349,94 +1351,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="49" t="s">
+      <c r="D1" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="J1" s="58" t="s">
+      <c r="H1" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="66" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="69" t="s">
+      <c r="T1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="54" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="49"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="60"/>
       <c r="M2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="63"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="54"/>
     </row>
     <row r="3" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1446,15 +1448,15 @@
         <v>33</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E3" s="44"/>
       <c r="F3" s="14"/>
       <c r="G3" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" s="16">
         <v>1</v>
@@ -1463,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L3" s="20" t="s">
         <v>19</v>
@@ -1475,22 +1477,22 @@
       <c r="N3" s="21"/>
       <c r="O3" s="22"/>
       <c r="P3" s="23" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="24">
         <v>10</v>
       </c>
       <c r="R3" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T3" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U3" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1501,27 +1503,27 @@
         <v>33</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="14"/>
       <c r="G4" s="15" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="H4" s="16">
         <v>2</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L4" s="20" t="s">
         <v>21</v>
@@ -1530,22 +1532,22 @@
       <c r="N4" s="21"/>
       <c r="O4" s="22"/>
       <c r="P4" s="23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="24">
         <v>10</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T4" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U4" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:187" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1556,17 +1558,17 @@
         <v>33</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E5" s="45" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="16">
         <v>3</v>
@@ -1575,10 +1577,10 @@
         <v>18</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L5" s="20" t="s">
         <v>19</v>
@@ -1588,7 +1590,7 @@
       </c>
       <c r="N5" s="29"/>
       <c r="O5" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P5" s="31" t="s">
         <v>18</v>
@@ -1600,13 +1602,13 @@
         <v>20</v>
       </c>
       <c r="S5" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="T5" s="70" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="T5" s="49" t="s">
+        <v>133</v>
       </c>
       <c r="U5" s="32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="EA5" s="4"/>
       <c r="EB5" s="4"/>
@@ -1674,17 +1676,17 @@
         <v>33</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E6" s="46" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="16">
         <v>4</v>
@@ -1696,7 +1698,7 @@
         <v>37</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L6" s="20" t="s">
         <v>21</v>
@@ -1706,7 +1708,7 @@
         <v>22</v>
       </c>
       <c r="O6" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P6" s="37" t="s">
         <v>18</v>
@@ -1718,13 +1720,13 @@
         <v>38</v>
       </c>
       <c r="S6" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="T6" s="70" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="T6" s="49" t="s">
+        <v>137</v>
       </c>
       <c r="U6" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1735,17 +1737,17 @@
         <v>33</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E7" s="46" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="16">
         <v>5</v>
@@ -1757,7 +1759,7 @@
         <v>40</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L7" s="20" t="s">
         <v>21</v>
@@ -1767,7 +1769,7 @@
         <v>23</v>
       </c>
       <c r="O7" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P7" s="37" t="s">
         <v>18</v>
@@ -1779,13 +1781,13 @@
         <v>38</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="T7" s="70" t="s">
-        <v>143</v>
+        <v>136</v>
+      </c>
+      <c r="T7" s="49" t="s">
+        <v>140</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1796,10 +1798,10 @@
         <v>33</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" s="46" t="s">
         <v>41</v>
@@ -1818,7 +1820,7 @@
         <v>43</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L8" s="20" t="s">
         <v>21</v>
@@ -1840,13 +1842,13 @@
         <v>38</v>
       </c>
       <c r="S8" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="T8" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="T8" s="70" t="s">
-        <v>142</v>
-      </c>
       <c r="U8" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1857,17 +1859,17 @@
         <v>33</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="34" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="H9" s="16">
         <v>7</v>
@@ -1876,10 +1878,10 @@
         <v>36</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L9" s="20" t="s">
         <v>21</v>
@@ -1901,13 +1903,13 @@
         <v>38</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="T9" s="70" t="s">
-        <v>151</v>
+        <v>136</v>
+      </c>
+      <c r="T9" s="49" t="s">
+        <v>148</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:187" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1918,27 +1920,27 @@
         <v>33</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="33"/>
       <c r="G10" s="34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H10" s="16">
         <v>8</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L10" s="20" t="s">
         <v>19</v>
@@ -1953,16 +1955,16 @@
         <v>10</v>
       </c>
       <c r="R10" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S10" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="T10" s="71" t="s">
-        <v>114</v>
+        <v>98</v>
+      </c>
+      <c r="T10" s="50" t="s">
+        <v>111</v>
       </c>
       <c r="U10" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1973,17 +1975,17 @@
         <v>33</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E11" s="46" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H11" s="16">
         <v>9</v>
@@ -1995,7 +1997,7 @@
         <v>48</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L11" s="20" t="s">
         <v>21</v>
@@ -2005,7 +2007,7 @@
         <v>23</v>
       </c>
       <c r="O11" s="36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P11" s="37" t="s">
         <v>18</v>
@@ -2017,13 +2019,13 @@
         <v>38</v>
       </c>
       <c r="S11" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="T11" s="70" t="s">
-        <v>144</v>
+        <v>136</v>
+      </c>
+      <c r="T11" s="49" t="s">
+        <v>141</v>
       </c>
       <c r="U11" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:187" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2034,10 +2036,10 @@
         <v>33</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E12" s="46" t="s">
         <v>45</v>
@@ -2053,10 +2055,10 @@
         <v>36</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L12" s="20" t="s">
         <v>21</v>
@@ -2073,16 +2075,16 @@
         <v>10</v>
       </c>
       <c r="R12" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S12" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="T12" s="71" t="s">
-        <v>121</v>
+        <v>98</v>
+      </c>
+      <c r="T12" s="50" t="s">
+        <v>118</v>
       </c>
       <c r="U12" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:187" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2093,7 +2095,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>51</v>
@@ -2101,7 +2103,7 @@
       <c r="E13" s="46"/>
       <c r="F13" s="33"/>
       <c r="G13" s="34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H13" s="16">
         <v>11</v>
@@ -2110,10 +2112,10 @@
         <v>36</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L13" s="20" t="s">
         <v>21</v>
@@ -2122,22 +2124,22 @@
       <c r="N13" s="29"/>
       <c r="O13" s="36"/>
       <c r="P13" s="37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="32">
         <v>8</v>
       </c>
       <c r="R13" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S13" s="32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="T13" s="32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="U13" s="32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -2314,7 +2316,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>51</v>
@@ -2322,7 +2324,7 @@
       <c r="E14" s="46"/>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H14" s="16">
         <v>12</v>
@@ -2331,10 +2333,10 @@
         <v>36</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L14" s="20" t="s">
         <v>21</v>
@@ -2344,10 +2346,10 @@
         <v>26</v>
       </c>
       <c r="O14" s="36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P14" s="37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="32">
         <v>6</v>
@@ -2356,13 +2358,13 @@
         <v>38</v>
       </c>
       <c r="S14" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="T14" s="70" t="s">
-        <v>145</v>
+        <v>136</v>
+      </c>
+      <c r="T14" s="49" t="s">
+        <v>142</v>
       </c>
       <c r="U14" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2373,7 +2375,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>51</v>
@@ -2381,7 +2383,7 @@
       <c r="E15" s="46"/>
       <c r="F15" s="33"/>
       <c r="G15" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H15" s="16">
         <v>13</v>
@@ -2390,10 +2392,10 @@
         <v>18</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>19</v>
@@ -2402,22 +2404,22 @@
       <c r="N15" s="29"/>
       <c r="O15" s="36"/>
       <c r="P15" s="37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="32">
         <v>10</v>
       </c>
       <c r="R15" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S15" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="T15" s="71" t="s">
-        <v>80</v>
+        <v>98</v>
+      </c>
+      <c r="T15" s="50" t="s">
+        <v>77</v>
       </c>
       <c r="U15" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,7 +2430,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>51</v>
@@ -2447,10 +2449,10 @@
         <v>18</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L16" s="20" t="s">
         <v>19</v>
@@ -2458,25 +2460,25 @@
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
       <c r="O16" s="36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P16" s="37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q16">
         <v>9</v>
       </c>
       <c r="R16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T16" t="s">
         <v>53</v>
       </c>
       <c r="U16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2487,7 +2489,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>51</v>
@@ -2495,19 +2497,19 @@
       <c r="E17" s="46"/>
       <c r="F17" s="33"/>
       <c r="G17" s="34" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H17" s="16">
         <v>15</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L17" s="20" t="s">
         <v>21</v>
@@ -2516,22 +2518,22 @@
       <c r="N17" s="29"/>
       <c r="O17" s="36"/>
       <c r="P17" s="37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="32">
         <v>10</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S17" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="T17" s="71" t="s">
-        <v>116</v>
+        <v>98</v>
+      </c>
+      <c r="T17" s="50" t="s">
+        <v>113</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2542,7 +2544,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>51</v>
@@ -2564,7 +2566,7 @@
         <v>56</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L18" s="20" t="s">
         <v>21</v>
@@ -2572,7 +2574,7 @@
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
       <c r="O18" s="36" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P18" s="37" t="s">
         <v>18</v>
@@ -2581,16 +2583,16 @@
         <v>10</v>
       </c>
       <c r="R18" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="T18" s="71" t="s">
-        <v>122</v>
+        <v>98</v>
+      </c>
+      <c r="T18" s="50" t="s">
+        <v>119</v>
       </c>
       <c r="U18" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2601,7 +2603,7 @@
         <v>33</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>54</v>
@@ -2618,10 +2620,10 @@
         <v>18</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L19" s="20" t="s">
         <v>19</v>
@@ -2631,10 +2633,10 @@
       </c>
       <c r="N19" s="29"/>
       <c r="O19" s="36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P19" s="37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="32">
         <v>6</v>
@@ -2643,13 +2645,13 @@
         <v>20</v>
       </c>
       <c r="S19" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="T19" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="T19" s="70" t="s">
-        <v>138</v>
-      </c>
       <c r="U19" s="32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2660,7 +2662,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>54</v>
@@ -2670,7 +2672,7 @@
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H20" s="16">
         <v>18</v>
@@ -2679,10 +2681,10 @@
         <v>36</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L20" s="20" t="s">
         <v>21</v>
@@ -2692,7 +2694,7 @@
         <v>32</v>
       </c>
       <c r="O20" s="36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P20" s="37" t="s">
         <v>18</v>
@@ -2704,13 +2706,13 @@
         <v>38</v>
       </c>
       <c r="S20" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="T20" s="70" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="T20" s="49" t="s">
+        <v>145</v>
       </c>
       <c r="U20" s="32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2721,7 +2723,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>54</v>
@@ -2731,7 +2733,7 @@
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="34" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H21" s="16">
         <v>19</v>
@@ -2743,7 +2745,7 @@
         <v>61</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L21" s="20" t="s">
         <v>21</v>
@@ -2758,16 +2760,16 @@
         <v>9</v>
       </c>
       <c r="R21" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="T21" s="71" t="s">
-        <v>153</v>
+        <v>98</v>
+      </c>
+      <c r="T21" s="50" t="s">
+        <v>150</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2778,7 +2780,7 @@
         <v>33</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>54</v>
@@ -2786,7 +2788,7 @@
       <c r="E22" s="46"/>
       <c r="F22" s="33"/>
       <c r="G22" s="34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H22" s="16">
         <v>20</v>
@@ -2795,10 +2797,10 @@
         <v>36</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L22" s="20" t="s">
         <v>21</v>
@@ -2807,22 +2809,22 @@
       <c r="N22" s="29"/>
       <c r="O22" s="36"/>
       <c r="P22" s="37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q22" s="32">
         <v>10</v>
       </c>
       <c r="R22" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="T22" s="71" t="s">
-        <v>123</v>
+        <v>98</v>
+      </c>
+      <c r="T22" s="50" t="s">
+        <v>120</v>
       </c>
       <c r="U22" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2833,7 +2835,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>54</v>
@@ -2855,7 +2857,7 @@
         <v>59</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L23" s="20" t="s">
         <v>21</v>
@@ -2872,16 +2874,16 @@
         <v>10</v>
       </c>
       <c r="R23" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S23" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="T23" s="71" t="s">
-        <v>124</v>
+        <v>98</v>
+      </c>
+      <c r="T23" s="50" t="s">
+        <v>121</v>
       </c>
       <c r="U23" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2892,15 +2894,15 @@
         <v>33</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E24" s="46"/>
       <c r="F24" s="33"/>
       <c r="G24" s="34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H24" s="16">
         <v>22</v>
@@ -2909,10 +2911,10 @@
         <v>36</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L24" s="20" t="s">
         <v>21</v>
@@ -2921,22 +2923,22 @@
       <c r="N24" s="29"/>
       <c r="O24" s="36"/>
       <c r="P24" s="37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q24" s="32">
         <v>10</v>
       </c>
       <c r="R24" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S24" s="32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T24" s="32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="U24" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2947,17 +2949,17 @@
         <v>33</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E25" s="46" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H25" s="16">
         <v>23</v>
@@ -2966,10 +2968,10 @@
         <v>36</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L25" s="20" t="s">
         <v>21</v>
@@ -2984,16 +2986,16 @@
         <v>10</v>
       </c>
       <c r="R25" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S25" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="T25" s="71" t="s">
-        <v>126</v>
+        <v>98</v>
+      </c>
+      <c r="T25" s="50" t="s">
+        <v>123</v>
       </c>
       <c r="U25" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3004,17 +3006,17 @@
         <v>33</v>
       </c>
       <c r="C26" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="42" t="s">
-        <v>104</v>
-      </c>
       <c r="E26" s="46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H26" s="16">
         <v>24</v>
@@ -3023,10 +3025,10 @@
         <v>36</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L26" s="20" t="s">
         <v>21</v>
@@ -3036,7 +3038,7 @@
         <v>24</v>
       </c>
       <c r="O26" s="36" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P26" s="37" t="s">
         <v>18</v>
@@ -3048,13 +3050,13 @@
         <v>38</v>
       </c>
       <c r="S26" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="T26" s="70" t="s">
-        <v>146</v>
+        <v>136</v>
+      </c>
+      <c r="T26" s="49" t="s">
+        <v>143</v>
       </c>
       <c r="U26" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3065,17 +3067,17 @@
         <v>33</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="34" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="H27" s="16">
         <v>25</v>
@@ -3084,10 +3086,10 @@
         <v>36</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L27" s="20" t="s">
         <v>28</v>
@@ -3101,7 +3103,7 @@
       <c r="Q27" s="40"/>
       <c r="R27" s="41"/>
       <c r="S27" s="41"/>
-      <c r="T27" s="72"/>
+      <c r="T27" s="51"/>
       <c r="U27" s="41"/>
     </row>
     <row r="28" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3112,17 +3114,17 @@
         <v>33</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H28" s="16">
         <v>26</v>
@@ -3131,10 +3133,10 @@
         <v>36</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L28" s="20" t="s">
         <v>21</v>
@@ -3144,7 +3146,7 @@
         <v>22</v>
       </c>
       <c r="O28" s="36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P28" s="37" t="s">
         <v>62</v>
@@ -3156,13 +3158,13 @@
         <v>38</v>
       </c>
       <c r="S28" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="T28" s="70" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="T28" s="49" t="s">
+        <v>137</v>
       </c>
       <c r="U28" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3173,17 +3175,17 @@
         <v>33</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H29" s="16">
         <v>27</v>
@@ -3192,10 +3194,10 @@
         <v>36</v>
       </c>
       <c r="J29" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="K29" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="L29" s="20" t="s">
         <v>21</v>
@@ -3206,7 +3208,7 @@
       </c>
       <c r="O29" s="36"/>
       <c r="P29" s="43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -3215,13 +3217,13 @@
         <v>38</v>
       </c>
       <c r="S29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="T29" s="48" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="U29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5443,14 +5445,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -5463,6 +5457,14 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A29">

--- a/fuentes/contenidos/grado09/guion12/ESCALETA_ MA_09_12_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion12/ESCALETA_ MA_09_12_CO.xlsx
@@ -949,6 +949,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -971,45 +1010,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1318,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GE161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1351,94 +1351,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57" t="s">
+      <c r="N1" s="69"/>
+      <c r="O1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="59" t="s">
+      <c r="R1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="67" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="60"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="54"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="67"/>
     </row>
     <row r="3" spans="1:187" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -5445,6 +5445,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -5457,14 +5465,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A29">
